--- a/state_transition_table.xlsx
+++ b/state_transition_table.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27211"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyamu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinkaikouki/Compile/lexer-lexnum-tinkai/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B871A039-9C77-441C-8294-3DD124A8FCCB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{90FAF8D2-C5C6-41A3-AF62-5496007460B2}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>0(初期状態)</t>
     <rPh sb="2" eb="4">
@@ -113,40 +118,51 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3(整数(最初がN))</t>
+    <t>3(最初がN)</t>
     <rPh sb="2" eb="4">
-      <t>セイスウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
       <t>サイショ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>4(16進数(最初がA))</t>
-    <rPh sb="4" eb="6">
-      <t>シンスウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
+    <t>4(最初がA)</t>
+    <rPh sb="2" eb="4">
       <t>サイショ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>5(小数(受理できる))</t>
+    <t>5(小数(小数部がある))</t>
     <rPh sb="2" eb="4">
       <t>ショウスウ</t>
     </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジュリ</t>
-    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6(0X)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7(0N…)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dec</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -164,7 +180,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,6 +190,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -188,16 +210,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -207,7 +229,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -220,13 +242,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -542,27 +573,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C787E64-D06E-4787-8548-EAA40310FE6A}">
-  <dimension ref="B1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="87" zoomScalePageLayoutView="87" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.875" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="8" width="5.25" customWidth="1"/>
-    <col min="9" max="9" width="4.75" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="8" width="5.1640625" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
         <v>2</v>
@@ -583,252 +614,345 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>1</v>
       </c>
-      <c r="D3" s="4">
-        <v>-1</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="D3" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="9">
         <v>2</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="9">
         <v>3</v>
       </c>
-      <c r="G3" s="5">
-        <v>4</v>
-      </c>
-      <c r="H3" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="G3" s="9">
+        <v>4</v>
+      </c>
+      <c r="H3" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="C4" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E4" s="9">
         <v>5</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="9">
         <v>5</v>
       </c>
-      <c r="G4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H4" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="G4" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5">
-        <v>5</v>
-      </c>
-      <c r="D5" s="5">
-        <v>4</v>
-      </c>
-      <c r="E5" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G5" s="5">
-        <v>4</v>
-      </c>
-      <c r="H5" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>6</v>
+      </c>
+      <c r="E5" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>7</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4</v>
+      </c>
+      <c r="H5" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="9">
         <v>3</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="9">
         <v>3</v>
       </c>
-      <c r="G6" s="5">
-        <v>4</v>
-      </c>
-      <c r="H6" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="G6" s="9">
+        <v>4</v>
+      </c>
+      <c r="H6" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E7" s="5">
-        <v>4</v>
-      </c>
-      <c r="F7" s="5">
-        <v>4</v>
-      </c>
-      <c r="G7" s="5">
-        <v>4</v>
-      </c>
-      <c r="H7" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C7" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="9">
+        <v>4</v>
+      </c>
+      <c r="F7" s="9">
+        <v>4</v>
+      </c>
+      <c r="G7" s="9">
+        <v>4</v>
+      </c>
+      <c r="H7" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="C8" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D8" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="9">
         <v>5</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="9">
         <v>5</v>
       </c>
-      <c r="G8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H8" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="2" t="s">
+      <c r="G8" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="9">
+        <v>4</v>
+      </c>
+      <c r="F9" s="9">
+        <v>4</v>
+      </c>
+      <c r="G9" s="9">
+        <v>4</v>
+      </c>
+      <c r="H9" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D10" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>7</v>
+      </c>
+      <c r="F10" s="4">
+        <v>7</v>
+      </c>
+      <c r="G10" s="9">
+        <v>4</v>
+      </c>
+      <c r="H10" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
+      <c r="C11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B12" s="1"/>
-      <c r="C12" s="6" t="s">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B13" s="1" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B14" s="1" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B15" s="1" t="s">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B16" s="1" t="s">
+      <c r="D17" s="8"/>
+      <c r="E17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B17" s="1" t="s">
+      <c r="D18" s="8"/>
+      <c r="E18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" s="1" t="s">
+      <c r="D19" s="8"/>
+      <c r="E19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C20" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="D20" s="8"/>
+      <c r="E20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
+  <mergeCells count="18">
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
